--- a/biology/Origine et évolution du vivant/Ichthyophonus/Ichthyophonus.xlsx
+++ b/biology/Origine et évolution du vivant/Ichthyophonus/Ichthyophonus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ichthyophonus est un genre d'organismes unicellulaires.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Ichthyophonus hoferi a été créé en 1911 par la biologiste allemande Marianne Plehn (d) (1863-1946) et son assistant Karl Mulsow (d) (~1887-1915)[1],[2], avec pour espèce type Ichthyophonus hoferi[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Ichthyophonus hoferi a été créé en 1911 par la biologiste allemande Marianne Plehn (d) (1863-1946) et son assistant Karl Mulsow (d) (~1887-1915) avec pour espèce type Ichthyophonus hoferi.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Index Fungorum                                      (6 octobre 2022)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Index Fungorum                                      (6 octobre 2022) :
 Ichthyophonus gasterophilus (Caullery &amp; Mesnil) V. Sprague, 1965
 Ichthyophonus hoferi Plehn &amp; Mulsow, 1911
 Ichthyophonus intestinalis L. Léger &amp; E. Hesse, 1923
